--- a/NformTester/NformTester/Keywordscripts/900.30.170_DisplayType.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.170_DisplayType.xlsx
@@ -4713,8 +4713,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="6.125" customWidth="1"/>
     <col min="5" max="5" width="32.375" customWidth="1"/>
     <col min="6" max="6" width="28.125" customWidth="1"/>

--- a/NformTester/NformTester/Keywordscripts/900.30.170_DisplayType.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.170_DisplayType.xlsx
@@ -3604,9 +3604,6 @@
     <t>Running Range</t>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -3644,9 +3641,6 @@
   </si>
   <si>
     <t>;Add some devices.</t>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1$</t>
   </si>
   <si>
     <t>Pass</t>
@@ -3705,6 +3699,14 @@
   </si>
   <si>
     <t>Close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4707,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4729,46 +4731,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>807</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -4802,7 +4804,7 @@
         <v>788</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C3" s="13">
         <v>2</v>
@@ -4874,7 +4876,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -4899,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -4924,7 +4926,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4959,11 +4961,11 @@
       <c r="H8" s="13" t="s">
         <v>775</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>811</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>797</v>
+      <c r="I8" s="26" t="s">
+        <v>825</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>826</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>776</v>
@@ -4979,10 +4981,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C9" s="13">
         <v>8</v>
@@ -5017,7 +5019,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -5108,13 +5110,13 @@
         <v>7</v>
       </c>
       <c r="H13" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="J13" s="26" t="s">
         <v>815</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>816</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>817</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -5143,7 +5145,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -5191,7 +5193,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="26"/>
@@ -5284,13 +5286,13 @@
         <v>7</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
@@ -5321,7 +5323,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
@@ -5435,13 +5437,13 @@
         <v>7</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
@@ -5468,7 +5470,7 @@
         <v>13</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
@@ -5578,13 +5580,13 @@
         <v>7</v>
       </c>
       <c r="H29" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="J29" s="26" t="s">
         <v>815</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>816</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>817</v>
       </c>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
@@ -5605,14 +5607,14 @@
         <v>114</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="26" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -5628,7 +5630,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="13"/>
@@ -5709,13 +5711,13 @@
         <v>7</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
@@ -5740,7 +5742,7 @@
         <v>13</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
@@ -5780,7 +5782,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="26"/>
@@ -5859,13 +5861,13 @@
         <v>7</v>
       </c>
       <c r="H40" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="J40" s="19" t="s">
         <v>815</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>816</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>817</v>
       </c>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
@@ -5889,7 +5891,7 @@
         <v>13</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
@@ -5987,13 +5989,13 @@
         <v>7</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
@@ -6017,7 +6019,7 @@
         <v>13</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
@@ -6115,13 +6117,13 @@
         <v>7</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K50" s="26"/>
       <c r="L50" s="26"/>
@@ -6139,7 +6141,7 @@
         <v>114</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>2</v>
@@ -6159,7 +6161,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="13"/>
@@ -6239,13 +6241,13 @@
         <v>7</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K55" s="26"/>
       <c r="L55" s="26"/>
@@ -6270,7 +6272,7 @@
         <v>13</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I56" s="26"/>
       <c r="J56" s="26"/>
@@ -6310,7 +6312,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="26"/>
@@ -6389,13 +6391,13 @@
         <v>7</v>
       </c>
       <c r="H61" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="J61" s="19" t="s">
         <v>815</v>
-      </c>
-      <c r="I61" s="26" t="s">
-        <v>816</v>
-      </c>
-      <c r="J61" s="19" t="s">
-        <v>817</v>
       </c>
       <c r="K61" s="26"/>
       <c r="L61" s="26"/>
@@ -6419,7 +6421,7 @@
         <v>13</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I62" s="26"/>
       <c r="J62" s="26"/>
@@ -6517,13 +6519,13 @@
         <v>7</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K66" s="26"/>
       <c r="L66" s="26"/>
@@ -6547,7 +6549,7 @@
         <v>13</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I67" s="26"/>
       <c r="J67" s="26"/>
@@ -6645,13 +6647,13 @@
         <v>7</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="J71" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K71" s="26"/>
       <c r="L71" s="26"/>
@@ -6669,7 +6671,7 @@
         <v>114</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>2</v>
@@ -6689,7 +6691,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
